--- a/csv/model/CIMS_calibration_MS/formula_CIMS_calibration_MS_MB.xlsx
+++ b/csv/model/CIMS_calibration_MS/formula_CIMS_calibration_MS_MB.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_calibration_MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81D8F0A6-D9F5-4C73-ADA7-F03F9BDD2215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F380CF-30BD-4CD1-BA2E-4D6AB978D285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D85B67A-7C68-4628-B60C-D653670A88F7}"/>
+    <workbookView xWindow="40980" yWindow="4095" windowWidth="17280" windowHeight="8880" xr2:uid="{3BFF80CC-D59B-4EFC-BACC-77E34EBE77AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -820,21 +820,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5FF155-857A-4103-B671-7639F1880E07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE577791-87ED-4F50-9EB2-4BBCAC36A1EC}">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -908,7 +908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>111</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>0.91175093632958804</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>0.91175093632958804</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>8.8249063670411895E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>8.8249063670411895E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -4890,47 +4890,47 @@
         <v>0.02</v>
       </c>
       <c r="N70">
-        <f t="shared" ref="N70:W73" si="0">M70</f>
+        <f t="shared" ref="N70:W73" ca="1" si="0">M70</f>
         <v>0.02</v>
       </c>
       <c r="O70">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="P70">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="R70">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="S70">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="T70">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="U70">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="V70">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="W70">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -4959,47 +4959,47 @@
         <v>0.05</v>
       </c>
       <c r="N71">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="O71">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="P71">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="R71">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="S71">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="T71">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="U71">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="V71">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="W71">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -5028,47 +5028,47 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P72">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R72">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S72">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T72">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U72">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V72">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="W72">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -5097,47 +5097,47 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S73">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T73">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U73">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V73">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="W73">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>135</v>
       </c>
